--- a/resource/40.design/440.development/[Saturn]449crawling_insert/31남성.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/31남성.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.설계\449.DB 데이터\크롤링 데이터 insert문\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -914,10 +914,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="C3" s="6">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -936,11 +936,11 @@
       </c>
       <c r="I3" s="10">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -959,15 +959,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (240, 240, '라이프익스텐션 투퍼데이 멀티비타민 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (288, 288, '라이프익스텐션 투퍼데이 멀티비타민 120정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002782/1000002782_main_067.jpg', 28900, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="C4" s="6">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -986,11 +986,11 @@
       </c>
       <c r="I4" s="10">
         <f t="shared" ref="I4:I54" ca="1" si="0">RANDBETWEEN(1, 5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J54" ca="1" si="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -1009,15 +1009,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P54" ca="1" si="2">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (241, 241, '네이처스웨이 얼라이브 원스 데일리 남성 멀티비타민 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000085/1000000085_main_017.jpg', 24800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (289, 289, '네이처스웨이 얼라이브 원스 데일리 남성 멀티비타민 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000085/1000000085_main_017.jpg', 24800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="C5" s="6">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -1036,11 +1036,11 @@
       </c>
       <c r="I5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -1059,15 +1059,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (242, 242, '솔가 맥주효모 7 1,2 그레인 위드 비타민 B12 250정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/03/03/1000000350/1000000350_main_047.jpg', 19800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (290, 290, '솔가 맥주효모 7 1,2 그레인 위드 비타민 B12 250정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/03/03/1000000350/1000000350_main_047.jpg', 19800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="C6" s="6">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -1086,11 +1086,11 @@
       </c>
       <c r="I6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -1109,15 +1109,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (243, 243, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (291, 291, '라이프익스텐션 투퍼데이 멀티비타민 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/03/09/1000002781/1000002781_main_019.jpg', 28900, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="C7" s="6">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -1136,11 +1136,11 @@
       </c>
       <c r="I7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -1159,15 +1159,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (244, 244, '네이처스웨이 얼라이브 맥스3 멀티비타민 180정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/26/1000000265/1000000265_main_084.jpg', 49600, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (292, 292, '네이처스웨이 얼라이브 맥스3 멀티비타민 180정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/11/26/1000000265/1000000265_main_084.jpg', 49600, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="C8" s="6">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1186,11 +1186,11 @@
       </c>
       <c r="I8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1209,15 +1209,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (245, 245, '네이처스웨이 얼라이브 남성 멀티비타민 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000084/1000000084_main_058.jpg', 27500, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (293, 293, '네이처스웨이 얼라이브 남성 멀티비타민 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/01/16/1000000084/1000000084_main_058.jpg', 27500, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="C9" s="6">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="I9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1259,15 +1259,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (246, 246, '솔가 비타민B 컴플렉스 100mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000529/1000000529_main_032.jpg', 23500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (294, 294, '솔가 비타민B 컴플렉스 100mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000529/1000000529_main_032.jpg', 23500, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="C10" s="6">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1286,11 +1286,11 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1309,15 +1309,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (247, 247, '닥터스베스트 멀티비타민 90베지 캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (295, 295, '닥터스베스트 멀티비타민 90베지 캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/04/14/1000002812/1000002812_main_092.jpg', 36500, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="C11" s="6">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1336,11 +1336,11 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1359,15 +1359,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (248, 248, '솔가 맥주효모+비오틴 5000mcg', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/07/31/1000002207/1000002207_main_028.jpg', 39600, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (296, 296, '솔가 맥주효모+비오틴 5000mcg', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/07/31/1000002207/1000002207_main_028.jpg', 39600, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="C12" s="6">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1386,11 +1386,11 @@
       </c>
       <c r="I12" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1409,15 +1409,15 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (249, 249, '블루보넷 뷰티풀 앨리 비오틴 10,000mcg 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001957/1000001957_main_081.jpg', 18300, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (297, 297, '블루보넷 뷰티풀 앨리 비오틴 10,000mcg 90캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001957/1000001957_main_081.jpg', 18300, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="C13" s="6">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -1436,11 +1436,11 @@
       </c>
       <c r="I13" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>23</v>
@@ -1459,15 +1459,15 @@
       </c>
       <c r="P13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (250, 250, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (298, 298, '나우푸드 L-아르기닌 1000mg 120정 3병 세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/02/16/1000001078/1000001078_main_061.jpg', 59400, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="C14" s="6">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -1486,11 +1486,11 @@
       </c>
       <c r="I14" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>23</v>
@@ -1509,15 +1509,15 @@
       </c>
       <c r="P14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (251, 251, '솔가 오메가3 EPA DHA 950mg 100소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 15, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (299, 299, '솔가 오메가3 EPA DHA 950mg 100소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="C15" s="6">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -1536,11 +1536,11 @@
       </c>
       <c r="I15" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>23</v>
@@ -1559,15 +1559,15 @@
       </c>
       <c r="P15" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (252, 252, '솔가 폴리코사놀 20mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (300, 300, '솔가 폴리코사놀 20mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="C16" s="6">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -1586,11 +1586,11 @@
       </c>
       <c r="I16" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>23</v>
@@ -1609,15 +1609,15 @@
       </c>
       <c r="P16" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (253, 253, '솔가 식물성 코큐텐 200mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (301, 301, '솔가 식물성 코큐텐 200mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="C17" s="6">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1636,11 +1636,11 @@
       </c>
       <c r="I17" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>23</v>
@@ -1659,15 +1659,15 @@
       </c>
       <c r="P17" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (254, 254, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (302, 302, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="C18" s="6">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -1686,11 +1686,11 @@
       </c>
       <c r="I18" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>23</v>
@@ -1709,15 +1709,15 @@
       </c>
       <c r="P18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (255, 255, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg', 46800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 13, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (303, 303, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg', 46800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="C19" s="6">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="J19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>23</v>
@@ -1759,15 +1759,15 @@
       </c>
       <c r="P19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (256, 256, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (304, 304, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="C20" s="6">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -1786,11 +1786,11 @@
       </c>
       <c r="I20" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>23</v>
@@ -1809,15 +1809,15 @@
       </c>
       <c r="P20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (257, 257, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (305, 305, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="C21" s="6">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="D21" t="s">
         <v>54</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>23</v>
@@ -1859,15 +1859,15 @@
       </c>
       <c r="P21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (258, 258, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (306, 306, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="C22" s="6">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -1886,11 +1886,11 @@
       </c>
       <c r="I22" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>23</v>
@@ -1909,15 +1909,15 @@
       </c>
       <c r="P22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (259, 259, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (307, 307, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C23" s="6">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="D23" t="s">
         <v>56</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="J23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>23</v>
@@ -1959,15 +1959,15 @@
       </c>
       <c r="P23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (260, 260, '솔가 L-아르기닌 1,000mg 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (308, 308, '솔가 L-아르기닌 1,000mg 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C24" s="6">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1986,11 +1986,11 @@
       </c>
       <c r="I24" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>23</v>
@@ -2009,15 +2009,15 @@
       </c>
       <c r="P24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (261, 261, '네이처스웨이 밀크씨슬 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (309, 309, '네이처스웨이 밀크씨슬 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="C25" s="6">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="I25" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>23</v>
@@ -2059,15 +2059,15 @@
       </c>
       <c r="P25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (262, 262, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (310, 310, '솔가 B 컴플렉스 위드 비타민 C 스트레스포뮬러 250정 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/08/04/1000001408/1000001408_main_090.jpg', 95400, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="C26" s="6">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -2086,11 +2086,11 @@
       </c>
       <c r="I26" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>23</v>
@@ -2109,15 +2109,15 @@
       </c>
       <c r="P26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (263, 263, '메가푸드 밸런스 B컴플렉스 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (311, 311, '메가푸드 밸런스 B컴플렉스 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000137/1000000137_main_028.jpg', 34000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="C27" s="6">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -2136,11 +2136,11 @@
       </c>
       <c r="I27" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>23</v>
@@ -2159,15 +2159,15 @@
       </c>
       <c r="P27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (264, 264, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (312, 312, '가든오브라이프 비타민코드 B콤플렉스 60베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/01/12/1000001069/1000001069_main_09.jpg', 27800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="C28" s="6">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="D28" t="s">
         <v>61</v>
@@ -2186,11 +2186,11 @@
       </c>
       <c r="I28" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>23</v>
@@ -2209,15 +2209,15 @@
       </c>
       <c r="P28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (265, 265, '블루보넷 구연산 칼슘 마그네슘 비타민 D3 180정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002755/1000002755_main_072.jpg', 34800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (313, 313, '블루보넷 구연산 칼슘 마그네슘 비타민 D3 180정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002755/1000002755_main_072.jpg', 34800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 22, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="C29" s="6">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="D29" t="s">
         <v>62</v>
@@ -2236,11 +2236,11 @@
       </c>
       <c r="I29" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>23</v>
@@ -2259,15 +2259,15 @@
       </c>
       <c r="P29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (266, 266, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (314, 314, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="C30" s="6">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="J30" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>23</v>
@@ -2309,15 +2309,15 @@
       </c>
       <c r="P30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (267, 267, '나우푸드 L-트립토판 1000mg 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/08/33/1000002901/1000002901_main_075.jpg', 31500, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (315, 315, '나우푸드 L-트립토판 1000mg 60정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/08/33/1000002901/1000002901_main_075.jpg', 31500, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="C31" s="6">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="I31" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>23</v>
@@ -2359,15 +2359,15 @@
       </c>
       <c r="P31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (268, 268, '네이처스웨이 밀크씨슬 120캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg', 99000, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (316, 316, '네이처스웨이 밀크씨슬 120캡슐 3병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/20/02/07/1000002196/1000002196_main_07.jpg', 99000, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="C32" s="6">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="D32" t="s">
         <v>65</v>
@@ -2386,11 +2386,11 @@
       </c>
       <c r="I32" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>23</v>
@@ -2409,15 +2409,15 @@
       </c>
       <c r="P32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (269, 269, '솔가 메가솔브 비타민B 컴플렉스 50mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/12/49/1000003011/1000003011_main_075.jpg', 21800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (317, 317, '솔가 메가솔브 비타민B 컴플렉스 50mg 100정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/23/12/49/1000003011/1000003011_main_075.jpg', 21800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C33" s="6">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -2436,11 +2436,11 @@
       </c>
       <c r="I33" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J33" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>23</v>
@@ -2459,15 +2459,15 @@
       </c>
       <c r="P33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (270, 270, '블루보넷 구연산 칼슘 마그네슘 비타민 D3 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002756/1000002756_main_055.jpg', 18900, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (318, 318, '블루보넷 구연산 칼슘 마그네슘 비타민 D3 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002756/1000002756_main_055.jpg', 18900, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 27, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="C34" s="6">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -2486,11 +2486,11 @@
       </c>
       <c r="I34" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>23</v>
@@ -2509,15 +2509,15 @@
       </c>
       <c r="P34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (271, 271, '솔가 비타민B 컴플렉스 100mg 250캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001172/1000001172_main_051.jpg', 49800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (319, 319, '솔가 비타민B 컴플렉스 100mg 250캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001172/1000001172_main_051.jpg', 49800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 29, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="C35" s="6">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="D35" t="s">
         <v>47</v>
@@ -2536,11 +2536,11 @@
       </c>
       <c r="I35" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>23</v>
@@ -2559,15 +2559,15 @@
       </c>
       <c r="P35" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (272, 272, '솔가 오메가3 EPA DHA 950mg 100소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (320, 320, '솔가 오메가3 EPA DHA 950mg 100소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000176/1000000176_main_010.jpg', 38800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B36" s="6">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="C36" s="6">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
@@ -2586,11 +2586,11 @@
       </c>
       <c r="I36" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>23</v>
@@ -2609,15 +2609,15 @@
       </c>
       <c r="P36" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (273, 273, '솔가 폴리코사놀 20mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (321, 321, '솔가 폴리코사놀 20mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000178/1000000178_main_045.jpg', 29500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 24, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="C37" s="6">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="I37" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>23</v>
@@ -2659,15 +2659,15 @@
       </c>
       <c r="P37" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (274, 274, '솔가 식물성 코큐텐 200mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (322, 322, '솔가 식물성 코큐텐 200mg 60캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/09/1000000480/1000000480_main_041.jpg', 49800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="C38" s="6">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="I38" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J38" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2709,15 +2709,15 @@
       </c>
       <c r="P38" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (275, 275, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (323, 323, '노르딕내추럴스 얼티메이트 오메가3 레몬향 60소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/25/1000000034/1000000034_main_016.jpg', 31600, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="C39" s="6">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="D39" t="s">
         <v>51</v>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="J39" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>23</v>
@@ -2759,15 +2759,15 @@
       </c>
       <c r="P39" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (276, 276, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg', 46800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (324, 324, '블루보넷 버퍼드 킬레이트 마그네슘 120베지캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/01/01//1000002763/1000002763_main_032.jpg', 46800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 16, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="C40" s="6">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="D40" t="s">
         <v>52</v>
@@ -2786,11 +2786,11 @@
       </c>
       <c r="I40" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>23</v>
@@ -2809,15 +2809,15 @@
       </c>
       <c r="P40" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (277, 277, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (325, 325, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="C41" s="6">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="J41" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>23</v>
@@ -2859,15 +2859,15 @@
       </c>
       <c r="P41" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (278, 278, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (326, 326, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="C42" s="6">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="D42" t="s">
         <v>54</v>
@@ -2886,11 +2886,11 @@
       </c>
       <c r="I42" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J42" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>23</v>
@@ -2909,15 +2909,15 @@
       </c>
       <c r="P42" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (279, 279, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 9, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (327, 327, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="6">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="C43" s="6">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
@@ -2936,11 +2936,11 @@
       </c>
       <c r="I43" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J43" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>23</v>
@@ -2959,15 +2959,15 @@
       </c>
       <c r="P43" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (280, 280, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (328, 328, '노르딕내추럴스 얼티메이트 오메가 코큐텐 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000969/1000000969_main_099.jpg', 39800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="6">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="C44" s="6">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="D44" t="s">
         <v>56</v>
@@ -2986,11 +2986,11 @@
       </c>
       <c r="I44" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J44" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>23</v>
@@ -3009,15 +3009,15 @@
       </c>
       <c r="P44" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (281, 281, '솔가 L-아르기닌 1,000mg 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (329, 329, '솔가 L-아르기닌 1,000mg 90정', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/16/04/26/1000001175/1000001175_main_015.jpg', 24600, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="6">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="C45" s="6">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="D45" t="s">
         <v>68</v>
@@ -3036,11 +3036,11 @@
       </c>
       <c r="I45" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>23</v>
@@ -3059,15 +3059,15 @@
       </c>
       <c r="P45" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (282, 282, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (330, 330, '노르딕내추럴스 얼티메이트 오메가 2X 레몬향 2150mg 120 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/10/44/1000002060/1000002060_main_03.jpg', 93200, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="6">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="C46" s="6">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="D46" t="s">
         <v>69</v>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="I46" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>23</v>
@@ -3109,15 +3109,15 @@
       </c>
       <c r="P46" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (283, 283, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 21, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (331, 331, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐 2병세트', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/17/09/20/1000001668/1000001668_main_055.jpg', 61800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 30, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="6">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="C47" s="6">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="D47" t="s">
         <v>70</v>
@@ -3136,11 +3136,11 @@
       </c>
       <c r="I47" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J47" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>23</v>
@@ -3159,15 +3159,15 @@
       </c>
       <c r="P47" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (284, 284, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (332, 332, '나우푸드 실리마린 밀크씨슬 300mg 200 캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/16/1000000897/1000000897_main_077.jpg', 30900, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="6">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="C48" s="6">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="D48" t="s">
         <v>57</v>
@@ -3186,11 +3186,11 @@
       </c>
       <c r="I48" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>23</v>
@@ -3209,15 +3209,15 @@
       </c>
       <c r="P48" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (285, 285, '네이처스웨이 밀크씨슬 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 4, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (333, 333, '네이처스웨이 밀크씨슬 120캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/03/27/1000000156/1000000156_main_027.jpg', 33600, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="6">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="C49" s="6">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="D49" t="s">
         <v>62</v>
@@ -3236,11 +3236,11 @@
       </c>
       <c r="I49" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>23</v>
@@ -3259,15 +3259,15 @@
       </c>
       <c r="P49" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (286, 286, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (334, 334, '[유통기한임박상품] 자로우 밀크씨슬 150mg 100캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/08/17/1000000834/1000000834_main_048.jpg', 7120, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="6">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="C50" s="6">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="D50" t="s">
         <v>71</v>
@@ -3286,11 +3286,11 @@
       </c>
       <c r="I50" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J50" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>23</v>
@@ -3309,15 +3309,15 @@
       </c>
       <c r="P50" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (287, 287, '솔가 이노시톨 500mg 100 베지캡', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg', 20800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (335, 335, '솔가 이노시톨 500mg 100 베지캡', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/10/1000000551/1000000551_main_063.jpg', 20800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="6">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="C51" s="6">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="D51" t="s">
         <v>72</v>
@@ -3336,11 +3336,11 @@
       </c>
       <c r="I51" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>23</v>
@@ -3359,15 +3359,15 @@
       </c>
       <c r="P51" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (288, 288, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (336, 336, '블루보넷 타겟 초이스 리버 디톡스 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/06/26/1000001958/1000001958_main_015.jpg', 39600, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="6">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="C52" s="6">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="D52" t="s">
         <v>73</v>
@@ -3386,11 +3386,11 @@
       </c>
       <c r="I52" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>23</v>
@@ -3409,15 +3409,15 @@
       </c>
       <c r="P52" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (289, 289, '컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg', 48700, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 8, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (337, 337, '컨트리라이프 리버 서포트 팩터 100베지캡슐 (메티오닌 밀크시슬 아티초크)', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/05/28/1000000385/1000000385_main_089.jpg', 48700, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" s="6">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="C53" s="6">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="D53" t="s">
         <v>74</v>
@@ -3436,11 +3436,11 @@
       </c>
       <c r="I53" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J53" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>23</v>
@@ -3459,15 +3459,15 @@
       </c>
       <c r="P53" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (290, 290, '네이처스웨이 켈프 600mg 180캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg', 15800, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (338, 338, '네이처스웨이 켈프 600mg 180캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/13/10/29/1000000065/1000000065_main_098.jpg', 15800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 26, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="6">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="C54" s="6">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="D54" t="s">
         <v>75</v>
@@ -3486,11 +3486,11 @@
       </c>
       <c r="I54" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J54" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>23</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="P54" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (291, 291, '블루보넷 타이로이드 부스터 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/04/14//1000002152/1000002152_main_015.jpg', 24100, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (339, 339, '블루보넷 타이로이드 부스터 60식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/19/04/14//1000002152/1000002152_main_015.jpg', 24100, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
   </sheetData>
